--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -501,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>EC161 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -661,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -771,27 +775,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -867,7 +871,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -882,12 +886,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -904,22 +908,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,2819 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction to quantum Physics</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>28</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +485,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -505,27 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>MA161 [C405]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -569,27 +571,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>EC161 [C405]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS161 [C405]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC161 (Tutorial)</t>
+          <t>EC161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>DS161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HS161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS161 [C405]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -665,27 +667,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>CS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>MA162 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 (Tutorial)</t>
+          <t>MA161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HS161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,27 +777,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MA161 [C405]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
     </row>
@@ -844,22 +846,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -871,27 +873,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS161 (Tutorial)</t>
+          <t>MA161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,27 +937,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>EC161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Tutorial)</t>
+          <t>HS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA162 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3754,4 +3756,1334 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule all elective baskets</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No specific restrictions for this semester</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,14 +464,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C203]</t>
+          <t>ELECTIVE_B1 [C003]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,54 +481,54 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C203]</t>
+          <t>ELECTIVE_B1 [C003]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>EC161 [C201]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DS161 [C205]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 [C402]</t>
+          <t>EC161 [C201]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>MA161 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA162 [C402]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>HS161 [C405]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
@@ -563,103 +560,103 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA162 [C405]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161 [C404]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>HS161 [C405]</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA162 [C405]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DS161 [C205]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC161 [C404]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HS161 [C405]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>17:00-18:00</t>
         </is>
@@ -710,258 +707,3116 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C401]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C401]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C401]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DS161 [C401]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS161 [C101]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C401]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C401]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161 [C202]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C304]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HS161 [C302]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS161 [C302]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS161 [C204]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C204]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162 [C101]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162 [C405]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA161 [C304]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>library</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C003]</t>
+          <t>ELECTIVE_B1 [C305]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>DS161 [C104]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C305]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C003]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC161 [C201]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161 [C201]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C104]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS161 [C405]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA162 [C405]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -582,12 +582,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HS161 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C401]</t>
+          <t>ELECTIVE_B1 [C402]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>HS161 [C305]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C402]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C401]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA161 [C205]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C402]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161 [C302]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA161 [C302]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DS161 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161 [C205]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HS161 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -847,17 +847,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>HS161 [C305]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS161 [C401]</t>
+          <t>EC161 [C203]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>DS161 [C202]</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>EC161 [C203]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>MA162 [C402]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>EC161 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2521,27 +2521,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2576,27 +2576,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2641,17 +2641,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2691,22 +2691,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,37 +2846,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2956,22 +2956,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3351,22 +3351,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3406,22 +3406,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3621,17 +3621,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3786,32 +3786,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA161 [C204]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>EC161 [C403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 [C201]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA162 [C205]</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>HS161 [C201]</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA162 [C405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161 [C403]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA161 [C204]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162 [C205]</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>ELECTIVE_B1 [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS161 [C305]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>ELECTIVE_B1 [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>HS161 [C205]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA162 [C402]</t>
         </is>
       </c>
     </row>
@@ -773,22 +773,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C104]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161 [C302]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS161 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HS161 [C305]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C104]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 [C203]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162 [C402]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2571,32 +2571,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2901,22 +2901,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3176,22 +3176,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3286,22 +3286,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,17 +484,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C202]</t>
+          <t>ELECTIVE_B1 [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS161 [C002]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C404]</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 [C205]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C404]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>HS161 [C101]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162 [C205]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161 [C104]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,22 +744,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C004]</t>
+          <t>ELECTIVE_B1 [C002]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C302]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C004]</t>
+          <t>ELECTIVE_B1 [C002]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -776,27 +776,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C402]</t>
+          <t>DS161 [C302]</t>
         </is>
       </c>
     </row>
@@ -840,27 +840,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>MA162 [C401]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HS161 [C205]</t>
+          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA161 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS161 [C201]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -904,27 +904,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C401]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>HS161 [C201]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA162 [C404]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -1116,29 +1116,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**HS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1158,34 +1158,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**HS161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1217,17 +1217,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1257,24 +1257,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C404, L408</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C304, L408</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>⚠️ 4 issues</t>
+          <t>[WARN] 4 issues</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -1511,29 +1511,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C401</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**HS161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1553,29 +1553,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1605,29 +1605,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408, C003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1647,34 +1647,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**HS161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C402, C304, L408</t>
+          <t>C201</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>⚠️ 4 issues</t>
+          <t>[WARN] 4 issues</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,41 +1838,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DS161, MA161, ELECTIVE_B1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1905,17 +1905,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1948,7 +1948,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1975,23 +1975,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1, DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA162, HS161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2077,7 +2077,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2096,31 +2096,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DS161, EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2139,11 +2139,11 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2221,15 +2221,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2237,10 +2237,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
@@ -2355,22 +2398,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2412,22 +2455,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2469,22 +2512,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2526,22 +2569,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2583,22 +2626,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2640,22 +2683,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2738,7 +2781,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2822,12 +2865,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/35</t>
+          <t>11/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 28.6%</t>
+          <t>Utilization: 31.4%</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2909,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -464,9 +472,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,125 +484,125 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C001]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,14 +617,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -624,41 +632,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,6 +715,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -734,9 +747,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -746,61 +759,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HS161 [C203]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C002]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -830,41 +843,41 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C001]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -874,61 +887,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HS161 [C203]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1039,7 +1052,6 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
@@ -2527,4 +2539,5991 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C004, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C004, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C104</t>
+          <t>C001, C302</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C104, C202, C303</t>
+          <t>C002, C303</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C202, C205, C304</t>
+          <t>C004, C304</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C003, C305</t>
+          <t>C003, C305</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101, C203, C302, L403</t>
+          <t>C101, C202, L402</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, L402, L403, L408</t>
+          <t>C203, C204, L403</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C104, L404, L405, L406</t>
+          <t>C204, C205, L404</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C202, L407</t>
+          <t>C102, C205, L405</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C004, C203</t>
+          <t>C101, C104, L406</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C204</t>
+          <t>C102, C202, L407</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C101, C102, C205</t>
+          <t>C104, C203, L408</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2690,17 +2690,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2758,17 +2758,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2826,17 +2826,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2894,15 +2894,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
@@ -2918,7 +2922,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2963,12 +2967,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2986,7 +2990,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3054,7 +3058,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3326,7 +3330,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3394,7 +3398,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3502,15 +3506,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -3526,7 +3534,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3566,17 +3574,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -3594,7 +3602,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3634,17 +3642,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -3662,7 +3670,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3707,12 +3715,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3730,7 +3738,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3798,7 +3806,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3848,7 +3856,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3866,7 +3874,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3916,7 +3924,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3934,7 +3942,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3974,17 +3982,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -4002,7 +4010,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4047,7 +4055,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4070,7 +4078,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4206,7 +4214,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4246,17 +4254,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -4274,7 +4282,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4314,17 +4322,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4342,7 +4350,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4382,15 +4390,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -4406,7 +4418,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4451,12 +4463,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -4474,7 +4486,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4522,11 +4534,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -4538,7 +4546,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4586,11 +4594,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4650,11 +4654,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4898,19 +4898,15 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -4922,7 +4918,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5050,7 +5046,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5114,7 +5110,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5164,7 +5160,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -5178,7 +5174,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5228,7 +5224,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -5242,7 +5238,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5282,19 +5278,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -5310,7 +5302,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5355,7 +5347,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5378,7 +5370,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5418,17 +5410,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -5446,7 +5438,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5491,10 +5483,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -5510,7 +5506,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5578,7 +5574,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5628,7 +5624,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -5646,7 +5642,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5696,7 +5692,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -5714,7 +5710,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5764,7 +5760,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -5782,7 +5778,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5832,7 +5828,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -5850,7 +5846,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5900,7 +5896,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -5918,7 +5914,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5968,7 +5964,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -5986,7 +5982,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6026,19 +6022,15 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="b">
         <v>0</v>
       </c>
@@ -6054,7 +6046,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6094,12 +6086,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6122,7 +6114,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -6162,17 +6154,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -6190,7 +6182,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6326,7 +6318,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6371,7 +6363,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6394,7 +6386,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6439,7 +6431,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6462,7 +6454,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6507,7 +6499,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6530,7 +6522,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6570,17 +6562,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -6598,7 +6590,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6638,12 +6630,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6666,7 +6658,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6706,15 +6698,19 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -6730,7 +6726,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6770,19 +6766,15 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -6798,7 +6790,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6843,7 +6835,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6866,7 +6858,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6906,17 +6898,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -6934,7 +6926,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6979,10 +6971,14 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -6998,7 +6994,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -7116,7 +7112,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -7134,7 +7130,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7184,7 +7180,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -7202,7 +7198,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7270,7 +7266,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -7320,7 +7316,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -7338,7 +7334,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -7388,7 +7384,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -7406,7 +7402,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7474,7 +7470,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7566,16 +7562,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -7596,16 +7592,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26.25</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -7664,16 +7660,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -7698,16 +7694,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7834,16 +7830,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -8004,16 +8000,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -8106,16 +8102,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -8208,16 +8204,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -8855,7 +8851,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8872,7 +8868,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8936,7 +8932,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8946,7 +8942,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8978,7 +8974,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -9000,17 +8996,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HS161 [C101]</t>
+          <t>HS161 [C203]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -9385,7 +9381,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C001, L105</t>
+          <t>L206, C001</t>
         </is>
       </c>
     </row>
@@ -9639,7 +9635,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9682,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9729,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9776,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, L206, C004</t>
+          <t>C002, L105, C001</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9823,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9961,11 +9957,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -9973,12 +9969,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161, DS161, EC161...</t>
+          <t>DS161, MA161, EC161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -10004,7 +10000,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -10016,42 +10012,42 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA161, DS161, EC161...</t>
+          <t>DS161, MA161, EC161...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -10059,19 +10055,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -10086,7 +10082,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10114,22 +10110,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10137,7 +10133,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -10145,7 +10141,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -10157,7 +10153,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -10192,49 +10188,6 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -10732,7 +10685,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:14</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10816,12 +10769,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2845,16 +2845,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3049,16 +3049,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3321,16 +3321,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3389,16 +3389,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4206,17 +4206,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4230,7 +4230,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4422,17 +4422,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4446,7 +4446,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4494,17 +4494,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4518,7 +4518,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4566,17 +4566,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4590,7 +4590,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4782,17 +4782,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4806,7 +4806,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4878,7 +4878,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5022,7 +5022,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5214,12 +5214,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5670,17 +5670,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5898,17 +5898,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5974,12 +5974,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6283,12 +6283,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6430,17 +6430,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6658,17 +6658,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6734,12 +6734,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7190,17 +7190,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7418,17 +7418,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7499,10 +7499,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7514,7 +7518,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7567,10 +7571,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7582,7 +7590,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7630,15 +7638,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7650,7 +7662,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7703,10 +7715,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7718,7 +7734,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7771,10 +7787,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7786,7 +7806,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7834,15 +7854,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7854,7 +7878,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7902,15 +7926,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -7922,7 +7950,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -7970,15 +7998,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -7990,7 +8022,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8182,15 +8214,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -8202,7 +8238,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8250,15 +8286,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8270,7 +8310,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8606,15 +8646,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8630,7 +8674,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8686,11 +8730,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -8706,7 +8746,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8754,12 +8794,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8782,7 +8822,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8858,7 +8898,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8934,7 +8974,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9010,7 +9050,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9068,7 +9108,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9086,7 +9126,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9162,7 +9202,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9238,7 +9278,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9291,7 +9331,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -9314,7 +9354,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9362,15 +9402,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -9386,7 +9430,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9442,11 +9486,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -9462,7 +9502,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9510,12 +9550,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9538,7 +9578,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9614,7 +9654,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9690,7 +9730,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9766,7 +9806,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9824,7 +9864,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9842,7 +9882,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9918,7 +9958,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9994,7 +10034,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10047,7 +10087,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -10070,7 +10110,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10118,15 +10158,19 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -10142,7 +10186,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10198,11 +10242,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -10218,7 +10258,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10266,12 +10306,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10294,7 +10334,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10370,7 +10410,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10446,7 +10486,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10522,7 +10562,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10580,7 +10620,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -10598,7 +10638,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -10674,7 +10714,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10750,7 +10790,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10803,7 +10843,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -10826,7 +10866,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -10892,7 +10932,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10949,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C303</t>
+          <t>C001, L402</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10966,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C304</t>
+          <t>C002, L403</t>
         </is>
       </c>
     </row>
@@ -10943,7 +10983,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, L408</t>
+          <t>C101, C305</t>
         </is>
       </c>
     </row>
@@ -10960,7 +11000,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, L406</t>
+          <t>C102, C302</t>
         </is>
       </c>
     </row>
@@ -10977,7 +11017,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C305</t>
+          <t>C104, L404</t>
         </is>
       </c>
     </row>
@@ -10994,7 +11034,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C203</t>
+          <t>C202, L405</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11051,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C204, L402</t>
+          <t>C203, L406</t>
         </is>
       </c>
     </row>
@@ -11028,7 +11068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C205, L407</t>
+          <t>C204, C303</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11085,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, L403</t>
+          <t>C205, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_CSE_timetable_baskets.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3049,16 +3049,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3321,16 +3321,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4062,17 +4062,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4086,7 +4086,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4158,7 +4158,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4278,17 +4278,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4302,7 +4302,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4350,17 +4350,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4374,7 +4374,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5022,7 +5022,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5214,12 +5214,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5974,12 +5974,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6055,12 +6055,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6131,12 +6131,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6734,12 +6734,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6815,12 +6815,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6891,12 +6891,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7494,17 +7494,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -7518,7 +7518,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7566,17 +7566,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7590,7 +7590,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7710,17 +7710,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7734,7 +7734,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7782,17 +7782,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -7806,7 +7806,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8454,7 +8454,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8526,7 +8526,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8646,17 +8646,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8722,15 +8722,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -8746,7 +8750,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8794,12 +8798,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8822,7 +8826,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8898,7 +8902,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8956,7 +8960,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -8974,7 +8978,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9032,7 +9036,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -9050,7 +9054,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9108,7 +9112,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9126,7 +9130,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9184,7 +9188,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9202,7 +9206,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9278,7 +9282,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9354,7 +9358,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9402,17 +9406,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9430,7 +9434,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9478,15 +9482,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -9502,7 +9510,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9550,12 +9558,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9578,7 +9586,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9654,7 +9662,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9712,7 +9720,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -9730,7 +9738,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9788,7 +9796,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -9806,7 +9814,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9864,7 +9872,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9882,7 +9890,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9940,7 +9948,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -9958,7 +9966,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10034,7 +10042,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10110,7 +10118,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10158,17 +10166,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10186,7 +10194,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10234,15 +10242,19 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -10258,7 +10270,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10306,12 +10318,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10334,7 +10346,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10410,7 +10422,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10468,7 +10480,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -10486,7 +10498,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10544,7 +10556,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -10562,7 +10574,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10620,7 +10632,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -10638,7 +10650,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -10696,7 +10708,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -10714,7 +10726,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10790,7 +10802,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10866,7 +10878,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -10932,7 +10944,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10961,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, L402</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10978,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, L403</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10995,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C305</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -11000,7 +11012,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -11017,7 +11029,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, L404</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -11034,7 +11046,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, L405</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11063,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, L406</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -11068,7 +11080,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11097,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
